--- a/webusers.xlsx
+++ b/webusers.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240"/>
+    <workbookView windowWidth="28800" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -249,6 +249,24 @@
   </si>
   <si>
     <t>Arab</t>
+  </si>
+  <si>
+    <t>محمد خزامى</t>
+  </si>
+  <si>
+    <t>علياء</t>
+  </si>
+  <si>
+    <t>يعقوب عبدالرسول</t>
+  </si>
+  <si>
+    <t>كامل عمر عثمان</t>
+  </si>
+  <si>
+    <t>حسين حسن دبلول</t>
+  </si>
+  <si>
+    <t>محمد مبارك</t>
   </si>
 </sst>
 </file>
@@ -1226,19 +1244,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="36.5740740740741" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5727272727273" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.287037037037" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.2909090909091" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1262,7 +1280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1274,6 +1292,12 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
@@ -1680,10 +1704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:4">
-      <c r="A25" s="1">
-        <v>89</v>
-      </c>
+    <row r="25" s="1" customFormat="1" spans="2:6">
       <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
@@ -1692,6 +1713,12 @@
       </c>
       <c r="D25" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E25" s="1">
+        <v>17</v>
+      </c>
+      <c r="F25" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:4">
@@ -2152,7 +2179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>133</v>
       </c>
@@ -2165,8 +2192,14 @@
       <c r="D51" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="1">
+        <v>17</v>
+      </c>
+      <c r="F51" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>134</v>
       </c>
@@ -2179,8 +2212,14 @@
       <c r="D52" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="1">
+        <v>17</v>
+      </c>
+      <c r="F52" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>135</v>
       </c>
@@ -2192,6 +2231,12 @@
       </c>
       <c r="D53" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E53" s="1">
+        <v>17</v>
+      </c>
+      <c r="F53" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2214,9 +2259,120 @@
         <v>15</v>
       </c>
     </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>136</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1">
+        <v>15</v>
+      </c>
+      <c r="F56" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>4</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1">
+        <v>17</v>
+      </c>
+      <c r="F57" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>3</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1">
+        <v>17</v>
+      </c>
+      <c r="F58" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1">
+        <v>17</v>
+      </c>
+      <c r="F59" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="1">
+        <v>12</v>
+      </c>
+      <c r="F60" s="1">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F54" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A1:F54">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F59" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A1:F59">
       <sortCondition ref="A1"/>
     </sortState>
     <extLst/>

--- a/webusers.xlsx
+++ b/webusers.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12200"/>
+    <workbookView windowWidth="19200" windowHeight="7280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -59,12 +59,30 @@
     <t>male</t>
   </si>
   <si>
+    <t>محمد خزامى</t>
+  </si>
+  <si>
+    <t>customer service</t>
+  </si>
+  <si>
+    <t>كامل عمر عثمان</t>
+  </si>
+  <si>
+    <t>football coach</t>
+  </si>
+  <si>
+    <t>يعقوب عبدالرسول</t>
+  </si>
+  <si>
+    <t>محمد مبارك</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
     <t>سميرة</t>
   </si>
   <si>
-    <t>worker</t>
-  </si>
-  <si>
     <t>female</t>
   </si>
   <si>
@@ -122,6 +140,9 @@
     <t>فايزه</t>
   </si>
   <si>
+    <t>Arab</t>
+  </si>
+  <si>
     <t>محمد حسن داوود</t>
   </si>
   <si>
@@ -146,127 +167,109 @@
     <t>محمد اصف محمد صديق</t>
   </si>
   <si>
+    <t>سلطان</t>
+  </si>
+  <si>
+    <t>هبة عبدالرحيم حسين محمد</t>
+  </si>
+  <si>
+    <t>اريام</t>
+  </si>
+  <si>
+    <t>عبودى</t>
+  </si>
+  <si>
+    <t>شميم</t>
+  </si>
+  <si>
+    <t>فردوس عالم عمر</t>
+  </si>
+  <si>
+    <t>coach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دانة فهد عبدالعزيز الزهراني </t>
+  </si>
+  <si>
+    <t>عبدالعزيز محمد عباس</t>
+  </si>
+  <si>
+    <t>ايمان محمد زوام منصور</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>سهام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ريم خالد محمد ريحان </t>
+  </si>
+  <si>
+    <t>امينه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رانية سيد سالم معمر </t>
+  </si>
+  <si>
+    <t>gumbaz coach</t>
+  </si>
+  <si>
+    <t>امير</t>
+  </si>
+  <si>
+    <t>ياسر</t>
+  </si>
+  <si>
+    <t>سميه</t>
+  </si>
+  <si>
+    <t>رنيم</t>
+  </si>
+  <si>
+    <t>كوكن</t>
+  </si>
+  <si>
+    <t>انس</t>
+  </si>
+  <si>
+    <t>نعيمه</t>
+  </si>
+  <si>
+    <t>صفاء الرفاعى</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> الاء رباح الأخرس</t>
+  </si>
+  <si>
+    <t>نهي محمد جميل مجلد</t>
+  </si>
+  <si>
+    <t>صفاء بدر</t>
+  </si>
+  <si>
+    <t>فرحات</t>
+  </si>
+  <si>
+    <t>ابراهيم مسعد</t>
+  </si>
+  <si>
+    <t>شعبان</t>
+  </si>
+  <si>
+    <t>مهدى</t>
+  </si>
+  <si>
+    <t>علياء</t>
+  </si>
+  <si>
     <t>Mohammad Nasr Mohammad Moussa</t>
   </si>
   <si>
-    <t>football coach</t>
-  </si>
-  <si>
-    <t>سلطان</t>
-  </si>
-  <si>
-    <t>هبة عبدالرحيم حسين محمد</t>
-  </si>
-  <si>
-    <t>اريام</t>
-  </si>
-  <si>
-    <t>عبودى</t>
-  </si>
-  <si>
-    <t>شميم</t>
-  </si>
-  <si>
-    <t>فردوس عالم عمر</t>
-  </si>
-  <si>
-    <t>coach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">دانة فهد عبدالعزيز الزهراني </t>
-  </si>
-  <si>
-    <t>customer service</t>
-  </si>
-  <si>
-    <t>عبدالعزيز محمد عباس</t>
-  </si>
-  <si>
-    <t>ايمان محمد زوام منصور</t>
-  </si>
-  <si>
-    <t>doctor</t>
-  </si>
-  <si>
-    <t>سهام</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ريم خالد محمد ريحان </t>
-  </si>
-  <si>
-    <t>امينه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رانية سيد سالم معمر </t>
-  </si>
-  <si>
-    <t>gumbaz coach</t>
-  </si>
-  <si>
-    <t>امير</t>
-  </si>
-  <si>
-    <t>ياسر</t>
-  </si>
-  <si>
-    <t>سميه</t>
-  </si>
-  <si>
-    <t>رنيم</t>
-  </si>
-  <si>
-    <t>كوكن</t>
-  </si>
-  <si>
-    <t>انس</t>
-  </si>
-  <si>
-    <t>نعيمه</t>
-  </si>
-  <si>
-    <t>صفاء الرفاعى</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> الاء رباح الأخرس</t>
-  </si>
-  <si>
-    <t>نهي محمد جميل مجلد</t>
-  </si>
-  <si>
-    <t>صفاء بدر</t>
-  </si>
-  <si>
-    <t>فرحات</t>
-  </si>
-  <si>
-    <t>ابراهيم مسعد</t>
-  </si>
-  <si>
-    <t>شعبان</t>
-  </si>
-  <si>
-    <t>مهدى</t>
-  </si>
-  <si>
-    <t>Arab</t>
-  </si>
-  <si>
-    <t>محمد خزامى</t>
-  </si>
-  <si>
-    <t>علياء</t>
-  </si>
-  <si>
-    <t>يعقوب عبدالرسول</t>
-  </si>
-  <si>
-    <t>كامل عمر عثمان</t>
-  </si>
-  <si>
     <t>حسين حسن دبلول</t>
   </si>
   <si>
-    <t>محمد مبارك</t>
+    <t>شيماء</t>
   </si>
 </sst>
 </file>
@@ -1244,10 +1247,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:F60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1300,9 +1303,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1311,58 +1314,52 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -1373,53 +1370,65 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E6" s="1">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1">
         <v>15</v>
       </c>
       <c r="F7" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
       <c r="A9" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -1428,203 +1437,203 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:6">
+    <row r="10" s="1" customFormat="1" spans="1:4">
       <c r="A10" s="1">
-        <v>39</v>
-      </c>
-      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
       <c r="A11" s="1">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
+    <row r="12" s="1" customFormat="1" spans="1:4">
       <c r="A12" s="1">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1">
-        <v>23</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:6">
       <c r="A13" s="1">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:6">
       <c r="A14" s="1">
-        <v>53</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:6">
       <c r="A15" s="1">
-        <v>55</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:6">
       <c r="A16" s="1">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:6">
       <c r="A17" s="1">
-        <v>61</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="1">
-        <v>70</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:6">
       <c r="A19" s="1">
-        <v>72</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F19" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:4">
       <c r="A20" s="1">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>8</v>
@@ -1632,30 +1641,30 @@
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="1">
-        <v>77</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
       <c r="A22" s="1">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
@@ -1663,201 +1672,198 @@
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:4">
       <c r="A23" s="1">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E23" s="1">
-        <v>12</v>
-      </c>
-      <c r="F23" s="1">
-        <v>20</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="1">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1">
         <v>17</v>
       </c>
       <c r="F24" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="2:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:4">
+      <c r="A25" s="1">
+        <v>73</v>
+      </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="1">
-        <v>17</v>
-      </c>
-      <c r="F25" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:4">
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:6">
       <c r="A26" s="1">
-        <v>90</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:4">
       <c r="A27" s="1">
-        <v>91</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>32</v>
+        <v>80</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="1">
-        <v>17</v>
-      </c>
-      <c r="F27" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:6">
       <c r="A28" s="1">
-        <v>92</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>82</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:6">
       <c r="A29" s="1">
-        <v>93</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>86</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:6">
+      <c r="E29" s="1">
+        <v>17</v>
+      </c>
+      <c r="F29" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:4">
       <c r="A30" s="1">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E30" s="1">
-        <v>6</v>
-      </c>
-      <c r="F30" s="1">
-        <v>15</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:6">
       <c r="A31" s="1">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C31" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F31" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:6">
       <c r="A32" s="1">
-        <v>100</v>
-      </c>
-      <c r="B32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1">
         <v>15</v>
       </c>
       <c r="F32" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:4">
       <c r="A33" s="1">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>8</v>
@@ -1865,189 +1871,189 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="1:6">
       <c r="A34" s="1">
-        <v>104</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>94</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E34" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F34" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:6">
       <c r="A35" s="1">
-        <v>105</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>98</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E35" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F35" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:6">
       <c r="A36" s="1">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F36" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:4">
       <c r="A37" s="1">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:6">
       <c r="A38" s="1">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="1">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:6">
+      <c r="A39" s="1">
+        <v>105</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="1">
-        <v>17</v>
-      </c>
-      <c r="F38" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:4">
-      <c r="A39" s="1">
-        <v>112</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="E39" s="1">
+        <v>6</v>
+      </c>
+      <c r="F39" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:6">
       <c r="A40" s="1">
-        <v>113</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>106</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E40" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F40" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:4">
       <c r="A41" s="1">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="1">
-        <v>15</v>
-      </c>
-      <c r="F41" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:6">
       <c r="A42" s="1">
-        <v>115</v>
-      </c>
-      <c r="B42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E42" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F42" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>62</v>
@@ -2058,30 +2064,36 @@
       <c r="D44" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E44" s="1">
+        <v>15</v>
+      </c>
+      <c r="F44" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E45" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F45" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>64</v>
@@ -2090,58 +2102,46 @@
         <v>15</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E46" s="1">
         <v>15</v>
       </c>
       <c r="F46" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>123</v>
-      </c>
-      <c r="B47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>32</v>
+      <c r="C47" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="1">
-        <v>17</v>
-      </c>
-      <c r="F47" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>127</v>
-      </c>
-      <c r="B48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>32</v>
+      <c r="C48" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="1">
-        <v>18</v>
-      </c>
-      <c r="F48" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>67</v>
@@ -2150,47 +2150,47 @@
         <v>15</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E49" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F49" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E50" s="1">
         <v>15</v>
       </c>
       <c r="F50" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>133</v>
-      </c>
-      <c r="B51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E51" s="1">
         <v>17</v>
@@ -2201,101 +2201,107 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>134</v>
-      </c>
-      <c r="B52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E52" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F52" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>32</v>
+      <c r="C53" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E53" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F53" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F54" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>48</v>
+      <c r="C55" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E55" s="1">
+        <v>17</v>
+      </c>
+      <c r="F55" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>48</v>
+      <c r="C56" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E56" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F56" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>75</v>
@@ -2315,22 +2321,22 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>3</v>
-      </c>
-      <c r="B58" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>39</v>
+      <c r="C58" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E58" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F58" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="2:6">
@@ -2338,41 +2344,78 @@
         <v>77</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1">
+        <v>17</v>
+      </c>
+      <c r="F59" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="1">
+        <v>17</v>
+      </c>
+      <c r="F60" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>37</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="1">
-        <v>17</v>
-      </c>
-      <c r="F59" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1">
-        <v>5</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="1">
+        <v>9</v>
+      </c>
+      <c r="F61" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>138</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="1">
-        <v>12</v>
-      </c>
-      <c r="F60" s="1">
-        <v>24</v>
+      <c r="D62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="1">
+        <v>15</v>
+      </c>
+      <c r="F62" s="1">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F59" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A1:F59">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F60" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A2:F60">
       <sortCondition ref="A1"/>
     </sortState>
     <extLst/>

--- a/webusers.xlsx
+++ b/webusers.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240"/>
+    <workbookView windowWidth="19200" windowHeight="7280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -59,12 +59,30 @@
     <t>male</t>
   </si>
   <si>
+    <t>محمد خزامى</t>
+  </si>
+  <si>
+    <t>customer service</t>
+  </si>
+  <si>
+    <t>كامل عمر عثمان</t>
+  </si>
+  <si>
+    <t>football coach</t>
+  </si>
+  <si>
+    <t>يعقوب عبدالرسول</t>
+  </si>
+  <si>
+    <t>محمد مبارك</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
     <t>سميرة</t>
   </si>
   <si>
-    <t>worker</t>
-  </si>
-  <si>
     <t>female</t>
   </si>
   <si>
@@ -122,6 +140,9 @@
     <t>فايزه</t>
   </si>
   <si>
+    <t>Arab</t>
+  </si>
+  <si>
     <t>محمد حسن داوود</t>
   </si>
   <si>
@@ -146,109 +167,109 @@
     <t>محمد اصف محمد صديق</t>
   </si>
   <si>
+    <t>سلطان</t>
+  </si>
+  <si>
+    <t>هبة عبدالرحيم حسين محمد</t>
+  </si>
+  <si>
+    <t>اريام</t>
+  </si>
+  <si>
+    <t>عبودى</t>
+  </si>
+  <si>
+    <t>شميم</t>
+  </si>
+  <si>
+    <t>فردوس عالم عمر</t>
+  </si>
+  <si>
+    <t>coach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دانة فهد عبدالعزيز الزهراني </t>
+  </si>
+  <si>
+    <t>عبدالعزيز محمد عباس</t>
+  </si>
+  <si>
+    <t>ايمان محمد زوام منصور</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>سهام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ريم خالد محمد ريحان </t>
+  </si>
+  <si>
+    <t>امينه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رانية سيد سالم معمر </t>
+  </si>
+  <si>
+    <t>gumbaz coach</t>
+  </si>
+  <si>
+    <t>امير</t>
+  </si>
+  <si>
+    <t>ياسر</t>
+  </si>
+  <si>
+    <t>سميه</t>
+  </si>
+  <si>
+    <t>رنيم</t>
+  </si>
+  <si>
+    <t>كوكن</t>
+  </si>
+  <si>
+    <t>انس</t>
+  </si>
+  <si>
+    <t>نعيمه</t>
+  </si>
+  <si>
+    <t>صفاء الرفاعى</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> الاء رباح الأخرس</t>
+  </si>
+  <si>
+    <t>نهي محمد جميل مجلد</t>
+  </si>
+  <si>
+    <t>صفاء بدر</t>
+  </si>
+  <si>
+    <t>فرحات</t>
+  </si>
+  <si>
+    <t>ابراهيم مسعد</t>
+  </si>
+  <si>
+    <t>شعبان</t>
+  </si>
+  <si>
+    <t>مهدى</t>
+  </si>
+  <si>
+    <t>علياء</t>
+  </si>
+  <si>
     <t>Mohammad Nasr Mohammad Moussa</t>
   </si>
   <si>
-    <t>football coach</t>
-  </si>
-  <si>
-    <t>سلطان</t>
-  </si>
-  <si>
-    <t>هبة عبدالرحيم حسين محمد</t>
-  </si>
-  <si>
-    <t>اريام</t>
-  </si>
-  <si>
-    <t>عبودى</t>
-  </si>
-  <si>
-    <t>شميم</t>
-  </si>
-  <si>
-    <t>فردوس عالم عمر</t>
-  </si>
-  <si>
-    <t>coach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">دانة فهد عبدالعزيز الزهراني </t>
-  </si>
-  <si>
-    <t>customer service</t>
-  </si>
-  <si>
-    <t>عبدالعزيز محمد عباس</t>
-  </si>
-  <si>
-    <t>ايمان محمد زوام منصور</t>
-  </si>
-  <si>
-    <t>doctor</t>
-  </si>
-  <si>
-    <t>سهام</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ريم خالد محمد ريحان </t>
-  </si>
-  <si>
-    <t>امينه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رانية سيد سالم معمر </t>
-  </si>
-  <si>
-    <t>gumbaz coach</t>
-  </si>
-  <si>
-    <t>امير</t>
-  </si>
-  <si>
-    <t>ياسر</t>
-  </si>
-  <si>
-    <t>سميه</t>
-  </si>
-  <si>
-    <t>رنيم</t>
-  </si>
-  <si>
-    <t>كوكن</t>
-  </si>
-  <si>
-    <t>انس</t>
-  </si>
-  <si>
-    <t>نعيمه</t>
-  </si>
-  <si>
-    <t>صفاء الرفاعى</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> الاء رباح الأخرس</t>
-  </si>
-  <si>
-    <t>نهي محمد جميل مجلد</t>
-  </si>
-  <si>
-    <t>صفاء بدر</t>
-  </si>
-  <si>
-    <t>فرحات</t>
-  </si>
-  <si>
-    <t>ابراهيم مسعد</t>
-  </si>
-  <si>
-    <t>شعبان</t>
-  </si>
-  <si>
-    <t>مهدى</t>
-  </si>
-  <si>
-    <t>Arab</t>
+    <t>حسين حسن دبلول</t>
+  </si>
+  <si>
+    <t>شيماء</t>
   </si>
 </sst>
 </file>
@@ -1226,19 +1247,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="36.5740740740741" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5727272727273" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.287037037037" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.2909090909091" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1262,7 +1283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1275,10 +1296,16 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="E2" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1287,58 +1314,52 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -1349,53 +1370,65 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E6" s="1">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1">
         <v>15</v>
       </c>
       <c r="F7" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
       <c r="A9" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -1404,203 +1437,203 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:6">
+    <row r="10" s="1" customFormat="1" spans="1:4">
       <c r="A10" s="1">
-        <v>39</v>
-      </c>
-      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
       <c r="A11" s="1">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
+    <row r="12" s="1" customFormat="1" spans="1:4">
       <c r="A12" s="1">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1">
-        <v>23</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:6">
       <c r="A13" s="1">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:6">
       <c r="A14" s="1">
-        <v>53</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:6">
       <c r="A15" s="1">
-        <v>55</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:6">
       <c r="A16" s="1">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:6">
       <c r="A17" s="1">
-        <v>61</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="1">
-        <v>70</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:6">
       <c r="A19" s="1">
-        <v>72</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F19" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:4">
       <c r="A20" s="1">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>8</v>
@@ -1608,30 +1641,30 @@
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="1">
-        <v>77</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
       <c r="A22" s="1">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
@@ -1639,198 +1672,198 @@
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:4">
       <c r="A23" s="1">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E23" s="1">
-        <v>12</v>
-      </c>
-      <c r="F23" s="1">
-        <v>20</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="1">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1">
         <v>17</v>
       </c>
       <c r="F24" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:4">
       <c r="A25" s="1">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:4">
+    <row r="26" s="1" customFormat="1" spans="1:6">
       <c r="A26" s="1">
-        <v>90</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:4">
       <c r="A27" s="1">
-        <v>91</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>32</v>
+        <v>80</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="1">
-        <v>17</v>
-      </c>
-      <c r="F27" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:6">
       <c r="A28" s="1">
-        <v>92</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>82</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:6">
       <c r="A29" s="1">
-        <v>93</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>86</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:6">
+      <c r="E29" s="1">
+        <v>17</v>
+      </c>
+      <c r="F29" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:4">
       <c r="A30" s="1">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E30" s="1">
-        <v>6</v>
-      </c>
-      <c r="F30" s="1">
-        <v>15</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:6">
       <c r="A31" s="1">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C31" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F31" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:6">
       <c r="A32" s="1">
-        <v>100</v>
-      </c>
-      <c r="B32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1">
         <v>15</v>
       </c>
       <c r="F32" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:4">
       <c r="A33" s="1">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>8</v>
@@ -1838,189 +1871,189 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="1:6">
       <c r="A34" s="1">
-        <v>104</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>94</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E34" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F34" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:6">
       <c r="A35" s="1">
-        <v>105</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>98</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E35" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F35" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:6">
       <c r="A36" s="1">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F36" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:4">
       <c r="A37" s="1">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:6">
       <c r="A38" s="1">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="1">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:6">
+      <c r="A39" s="1">
+        <v>105</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="1">
-        <v>17</v>
-      </c>
-      <c r="F38" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:4">
-      <c r="A39" s="1">
-        <v>112</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="E39" s="1">
+        <v>6</v>
+      </c>
+      <c r="F39" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:6">
       <c r="A40" s="1">
-        <v>113</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>106</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E40" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F40" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:4">
       <c r="A41" s="1">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="1">
-        <v>15</v>
-      </c>
-      <c r="F41" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:6">
       <c r="A42" s="1">
-        <v>115</v>
-      </c>
-      <c r="B42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E42" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F42" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>62</v>
@@ -2031,30 +2064,36 @@
       <c r="D44" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E44" s="1">
+        <v>15</v>
+      </c>
+      <c r="F44" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E45" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F45" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>64</v>
@@ -2063,58 +2102,46 @@
         <v>15</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E46" s="1">
         <v>15</v>
       </c>
       <c r="F46" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>123</v>
-      </c>
-      <c r="B47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>32</v>
+      <c r="C47" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="1">
-        <v>17</v>
-      </c>
-      <c r="F47" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>127</v>
-      </c>
-      <c r="B48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>32</v>
+      <c r="C48" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="1">
-        <v>18</v>
-      </c>
-      <c r="F48" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>67</v>
@@ -2123,100 +2150,272 @@
         <v>15</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E49" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F49" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E50" s="1">
         <v>15</v>
       </c>
       <c r="F50" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>123</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="1">
+        <v>17</v>
+      </c>
+      <c r="F51" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>127</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="1">
+        <v>18</v>
+      </c>
+      <c r="F52" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1">
-        <v>133</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1">
-        <v>134</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>32</v>
+      <c r="C53" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="E53" s="1">
+        <v>15</v>
+      </c>
+      <c r="F53" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1">
+        <v>15</v>
+      </c>
+      <c r="F54" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>133</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="1">
+        <v>17</v>
+      </c>
+      <c r="F55" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>134</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="1">
+        <v>17</v>
+      </c>
+      <c r="F56" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>135</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1">
+        <v>17</v>
+      </c>
+      <c r="F57" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>136</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="1">
-        <v>6</v>
-      </c>
-      <c r="F54" s="1">
-        <v>15</v>
+      <c r="D58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="1">
+        <v>15</v>
+      </c>
+      <c r="F58" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1">
+        <v>17</v>
+      </c>
+      <c r="F59" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="1">
+        <v>17</v>
+      </c>
+      <c r="F60" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>37</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="1">
+        <v>9</v>
+      </c>
+      <c r="F61" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>138</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="1">
+        <v>15</v>
+      </c>
+      <c r="F62" s="1">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F54" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A1:F54">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F60" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A2:F60">
       <sortCondition ref="A1"/>
     </sortState>
     <extLst/>

--- a/webusers.xlsx
+++ b/webusers.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7280"/>
+    <workbookView windowWidth="19200" windowHeight="8000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -80,6 +80,9 @@
     <t>worker</t>
   </si>
   <si>
+    <t>حسين حسن دبلول</t>
+  </si>
+  <si>
     <t>سميرة</t>
   </si>
   <si>
@@ -110,6 +113,12 @@
     <t>رحيمه</t>
   </si>
   <si>
+    <t>شيماء</t>
+  </si>
+  <si>
+    <t>academy</t>
+  </si>
+  <si>
     <t>زينب عبدالقادر</t>
   </si>
   <si>
@@ -149,9 +158,6 @@
     <t>إسراء اسحق عمر ادم</t>
   </si>
   <si>
-    <t>academy</t>
-  </si>
-  <si>
     <t>إسلام أحمد إبراهيم</t>
   </si>
   <si>
@@ -264,12 +270,6 @@
   </si>
   <si>
     <t>Mohammad Nasr Mohammad Moussa</t>
-  </si>
-  <si>
-    <t>حسين حسن دبلول</t>
-  </si>
-  <si>
-    <t>شيماء</t>
   </si>
 </sst>
 </file>
@@ -1247,10 +1247,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1379,47 +1379,47 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="1">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
         <v>17</v>
       </c>
-      <c r="E7" s="1">
-        <v>15</v>
-      </c>
       <c r="F7" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
       <c r="A9" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
@@ -1437,163 +1437,163 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:4">
+    <row r="10" s="1" customFormat="1" spans="1:6">
       <c r="A10" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:4">
+      <c r="A11" s="1">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="1">
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="1">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:4">
-      <c r="A12" s="1">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:4">
+      <c r="A13" s="1">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="1">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:6">
       <c r="A14" s="1">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:6">
       <c r="A15" s="1">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:6">
       <c r="A16" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1">
         <v>21</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1">
-        <v>23</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:6">
       <c r="A17" s="1">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="1">
-        <v>53</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
@@ -1602,46 +1602,52 @@
         <v>15</v>
       </c>
       <c r="F18" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:6">
       <c r="A19" s="1">
-        <v>55</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:6">
       <c r="A20" s="1">
-        <v>56</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="1">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>35</v>
@@ -1650,78 +1656,78 @@
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:4">
+      <c r="A22" s="1">
+        <v>56</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="A23" s="1">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1">
         <v>6</v>
       </c>
-      <c r="F21" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:6">
-      <c r="A22" s="1">
-        <v>67</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1">
-        <v>6</v>
-      </c>
-      <c r="F22" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:4">
-      <c r="A23" s="1">
-        <v>70</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
+      <c r="F23" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="1">
-        <v>72</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D24" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E24" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F24" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:4">
       <c r="A25" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>34</v>
+      <c r="C25" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>8</v>
@@ -1729,33 +1735,33 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="1:6">
       <c r="A26" s="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1">
         <v>17</v>
       </c>
-      <c r="E26" s="1">
-        <v>8</v>
-      </c>
       <c r="F26" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:4">
       <c r="A27" s="1">
-        <v>80</v>
-      </c>
-      <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>21</v>
+      <c r="C27" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>8</v>
@@ -1763,115 +1769,115 @@
     </row>
     <row r="28" s="1" customFormat="1" spans="1:6">
       <c r="A28" s="1">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E28" s="1">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:4">
+      <c r="A29" s="1">
+        <v>80</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:6">
+      <c r="A30" s="1">
+        <v>82</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1">
         <v>12</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F30" s="1">
         <v>20</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:6">
-      <c r="A29" s="1">
-        <v>86</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="1">
-        <v>17</v>
-      </c>
-      <c r="F29" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:4">
-      <c r="A30" s="1">
-        <v>90</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:6">
       <c r="A31" s="1">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>39</v>
+      <c r="C31" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E31" s="1">
         <v>17</v>
       </c>
       <c r="F31" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:4">
       <c r="A32" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:6">
+      <c r="A33" s="1">
+        <v>91</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1">
         <v>17</v>
       </c>
-      <c r="E32" s="1">
-        <v>15</v>
-      </c>
-      <c r="F32" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:4">
-      <c r="A33" s="1">
-        <v>93</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="F33" s="1">
         <v>21</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:6">
       <c r="A34" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>49</v>
@@ -1880,220 +1886,214 @@
         <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F34" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:4">
       <c r="A35" s="1">
-        <v>98</v>
-      </c>
-      <c r="B35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="1">
-        <v>12</v>
-      </c>
-      <c r="F35" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:6">
       <c r="A36" s="1">
-        <v>100</v>
-      </c>
-      <c r="B36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:6">
+      <c r="A37" s="1">
+        <v>98</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="1">
-        <v>15</v>
-      </c>
-      <c r="F36" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:4">
-      <c r="A37" s="1">
-        <v>101</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="E37" s="1">
+        <v>12</v>
+      </c>
+      <c r="F37" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:6">
       <c r="A38" s="1">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="1">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:4">
+      <c r="A39" s="1">
+        <v>101</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="1">
-        <v>10</v>
-      </c>
-      <c r="F38" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:6">
-      <c r="A39" s="1">
-        <v>105</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="1">
-        <v>6</v>
-      </c>
-      <c r="F39" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:6">
       <c r="A40" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="1">
         <v>10</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="1">
-        <v>8</v>
-      </c>
       <c r="F40" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:6">
       <c r="A41" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6</v>
+      </c>
+      <c r="F41" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:6">
       <c r="A42" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>60</v>
+      <c r="C42" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E42" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F42" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>113</v>
-      </c>
-      <c r="B44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E44" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F44" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="1">
-        <v>15</v>
-      </c>
-      <c r="F45" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>64</v>
@@ -2102,158 +2102,158 @@
         <v>15</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E46" s="1">
         <v>15</v>
       </c>
       <c r="F46" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E47" s="1">
+        <v>15</v>
+      </c>
+      <c r="F47" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="E48" s="1">
+        <v>15</v>
+      </c>
+      <c r="F48" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="1">
-        <v>6</v>
-      </c>
-      <c r="F49" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="1">
-        <v>15</v>
-      </c>
-      <c r="F50" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>123</v>
-      </c>
-      <c r="B51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>39</v>
+      <c r="C51" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E51" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F51" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>127</v>
-      </c>
-      <c r="B52" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>39</v>
+      <c r="C52" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E52" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F52" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>128</v>
-      </c>
-      <c r="B53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="1">
+        <v>17</v>
+      </c>
+      <c r="F53" s="1">
         <v>21</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="1">
-        <v>15</v>
-      </c>
-      <c r="F53" s="1">
-        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>129</v>
-      </c>
-      <c r="B54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>15</v>
+      <c r="C54" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E54" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F54" s="1">
         <v>22</v>
@@ -2261,53 +2261,53 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>39</v>
+      <c r="C55" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E55" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F55" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>39</v>
+      <c r="C56" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E56" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F56" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>8</v>
@@ -2321,30 +2321,33 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>10</v>
+      <c r="C58" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1">
         <v>17</v>
       </c>
-      <c r="E58" s="1">
-        <v>15</v>
-      </c>
       <c r="F58" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>135</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>8</v>
@@ -2356,66 +2359,46 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="3" t="s">
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>138</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="1">
+        <v>15</v>
+      </c>
+      <c r="F60" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="1">
+      <c r="D61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="1">
         <v>17</v>
-      </c>
-      <c r="F60" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1">
-        <v>37</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="1">
-        <v>9</v>
       </c>
       <c r="F61" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1">
-        <v>138</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="1">
-        <v>15</v>
-      </c>
-      <c r="F62" s="1">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F60" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A2:F60">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F61" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A1:F61">
       <sortCondition ref="A1"/>
     </sortState>
     <extLst/>

--- a/webusers.xlsx
+++ b/webusers.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8000"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -80,27 +80,42 @@
     <t>worker</t>
   </si>
   <si>
+    <t>سلمى</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
     <t>حسين حسن دبلول</t>
   </si>
   <si>
     <t>سميرة</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>توتال</t>
   </si>
   <si>
+    <t>arap</t>
+  </si>
+  <si>
+    <t>فوزيه</t>
+  </si>
+  <si>
     <t>موكبير</t>
   </si>
   <si>
+    <t>Mohammad Nasr Mohammad Moussa</t>
+  </si>
+  <si>
     <t>محمد</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
+    <t>فرح</t>
+  </si>
+  <si>
     <t>طارق</t>
   </si>
   <si>
@@ -110,6 +125,9 @@
     <t>manager</t>
   </si>
   <si>
+    <t>فهد</t>
+  </si>
+  <si>
     <t>رحيمه</t>
   </si>
   <si>
@@ -267,9 +285,6 @@
   </si>
   <si>
     <t>علياء</t>
-  </si>
-  <si>
-    <t>Mohammad Nasr Mohammad Moussa</t>
   </si>
 </sst>
 </file>
@@ -1247,19 +1262,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="36.5727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5740740740741" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.2909090909091" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.287037037037" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1377,49 +1392,43 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
+    <row r="7" s="1" customFormat="1" spans="1:4">
       <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
@@ -1428,18 +1437,18 @@
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
       <c r="A10" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
@@ -1459,451 +1468,445 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:4">
       <c r="A11" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:4">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="1">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:4">
-      <c r="A13" s="1">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:6">
       <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:4">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:6">
-      <c r="A15" s="1">
-        <v>37</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="1">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:6">
       <c r="A16" s="1">
-        <v>39</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:6">
       <c r="A17" s="1">
-        <v>40</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:6">
+    <row r="18" s="1" customFormat="1" spans="1:4">
       <c r="A18" s="1">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="1">
-        <v>15</v>
-      </c>
-      <c r="F18" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:6">
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:4">
       <c r="A19" s="1">
-        <v>49</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E19" s="1">
-        <v>8</v>
-      </c>
-      <c r="F19" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:6">
       <c r="A20" s="1">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="1">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
+      <c r="A22" s="1">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="1">
-        <v>15</v>
-      </c>
-      <c r="F21" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:4">
-      <c r="A22" s="1">
-        <v>56</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="E22" s="1">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:6">
       <c r="A23" s="1">
-        <v>61</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F23" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="1">
-        <v>67</v>
-      </c>
-      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
+      <c r="A25" s="1">
+        <v>49</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1">
-        <v>6</v>
-      </c>
-      <c r="F24" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:4">
-      <c r="A25" s="1">
-        <v>70</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:6">
       <c r="A26" s="1">
-        <v>72</v>
-      </c>
-      <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:6">
+      <c r="A27" s="1">
+        <v>55</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="1">
-        <v>17</v>
-      </c>
-      <c r="F26" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:4">
-      <c r="A27" s="1">
-        <v>73</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:4">
+      <c r="A28" s="1">
+        <v>56</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:6">
-      <c r="A28" s="1">
-        <v>77</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="1">
-        <v>8</v>
-      </c>
-      <c r="F28" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:6">
       <c r="A29" s="1">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:6">
       <c r="A30" s="1">
-        <v>82</v>
-      </c>
-      <c r="B30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>30</v>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F30" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:4">
       <c r="A31" s="1">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="1">
-        <v>17</v>
-      </c>
-      <c r="F31" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:4">
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:6">
       <c r="A32" s="1">
-        <v>90</v>
-      </c>
-      <c r="B32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>22</v>
+      <c r="C32" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1">
+        <v>17</v>
+      </c>
+      <c r="F32" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:4">
       <c r="A33" s="1">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="1">
-        <v>17</v>
-      </c>
-      <c r="F33" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:6">
       <c r="A34" s="1">
-        <v>92</v>
-      </c>
-      <c r="B34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>15</v>
+      <c r="C34" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F34" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:4">
       <c r="A35" s="1">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>8</v>
@@ -1911,181 +1914,181 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="1:6">
       <c r="A36" s="1">
-        <v>94</v>
-      </c>
-      <c r="B36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>15</v>
+      <c r="C36" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F36" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:6">
       <c r="A37" s="1">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1">
+        <v>17</v>
+      </c>
+      <c r="F37" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:4">
+      <c r="A38" s="1">
+        <v>90</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="1">
-        <v>12</v>
-      </c>
-      <c r="F37" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:6">
-      <c r="A38" s="1">
-        <v>100</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:6">
+      <c r="A39" s="1">
+        <v>91</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="1">
-        <v>15</v>
-      </c>
-      <c r="F38" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:4">
-      <c r="A39" s="1">
-        <v>101</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>22</v>
+      <c r="C39" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="E39" s="1">
+        <v>17</v>
+      </c>
+      <c r="F39" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:6">
       <c r="A40" s="1">
-        <v>104</v>
-      </c>
-      <c r="B40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="1">
+        <v>15</v>
+      </c>
+      <c r="F40" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:4">
+      <c r="A41" s="1">
+        <v>93</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="1">
-        <v>10</v>
-      </c>
-      <c r="F40" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:6">
-      <c r="A41" s="1">
-        <v>105</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="1">
-        <v>6</v>
-      </c>
-      <c r="F41" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:6">
       <c r="A42" s="1">
-        <v>106</v>
-      </c>
-      <c r="B42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>98</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="1">
-        <v>8</v>
-      </c>
-      <c r="F42" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1">
-        <v>107</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E43" s="1">
+        <v>12</v>
+      </c>
+      <c r="F43" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F44" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>8</v>
@@ -2093,264 +2096,252 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>113</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>15</v>
+        <v>104</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E46" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F46" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F47" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>115</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>66</v>
+        <v>106</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F48" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>109</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1">
-        <v>118</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="E50" s="1">
+        <v>17</v>
+      </c>
+      <c r="F50" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="1">
-        <v>6</v>
-      </c>
-      <c r="F51" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1">
+        <v>15</v>
+      </c>
+      <c r="F52" s="1">
         <v>22</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="1">
-        <v>15</v>
-      </c>
-      <c r="F52" s="1">
-        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>123</v>
-      </c>
-      <c r="B53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>28</v>
+      <c r="C53" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F53" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>127</v>
-      </c>
-      <c r="B54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>28</v>
+      <c r="C54" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F54" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="1">
-        <v>15</v>
-      </c>
-      <c r="F55" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E56" s="1">
-        <v>15</v>
-      </c>
-      <c r="F56" s="1">
-        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>28</v>
+      <c r="C57" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E57" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F57" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>28</v>
+      <c r="C58" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E58" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F58" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>135</v>
-      </c>
-      <c r="B59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E59" s="1">
         <v>17</v>
@@ -2361,44 +2352,147 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
+        <v>127</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="1">
+        <v>18</v>
+      </c>
+      <c r="F60" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>128</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="1">
+        <v>15</v>
+      </c>
+      <c r="F61" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>129</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1">
+        <v>15</v>
+      </c>
+      <c r="F62" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>133</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="1">
+        <v>17</v>
+      </c>
+      <c r="F63" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>134</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1">
+        <v>17</v>
+      </c>
+      <c r="F64" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>135</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="1">
+        <v>17</v>
+      </c>
+      <c r="F65" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
         <v>138</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="1">
-        <v>15</v>
-      </c>
-      <c r="F60" s="1">
+      <c r="D66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="1">
+        <v>15</v>
+      </c>
+      <c r="F66" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="1">
-        <v>17</v>
-      </c>
-      <c r="F61" s="1">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F61" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A1:F61">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F66" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A2:F66">
       <sortCondition ref="A1"/>
     </sortState>
     <extLst/>
